--- a/WebAutoTest/data_config/case_data.xlsx
+++ b/WebAutoTest/data_config/case_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\CodeAndProjects\Python\ryvueAutoTest\WebAutoTest\data_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCBA3EE-AF58-431B-8602-B3F19702C53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFCE6D1-DB01-4544-92AF-7F698DE98754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="1380" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="110">
   <si>
     <t>用例数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,336 +176,239 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>添加用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_user_002</t>
+  </si>
+  <si>
+    <t>add_user_003</t>
+  </si>
+  <si>
+    <t>add_user_004</t>
+  </si>
+  <si>
+    <t>add_user_005</t>
+  </si>
+  <si>
+    <t>add_user_006</t>
+  </si>
+  <si>
+    <t>add_user_007</t>
+  </si>
+  <si>
+    <t>add_user_008</t>
+  </si>
+  <si>
+    <t>add_user_009</t>
+  </si>
+  <si>
+    <t>add_user_010</t>
+  </si>
+  <si>
+    <t>add_user_011</t>
+  </si>
+  <si>
+    <t>add_user_012</t>
+  </si>
+  <si>
+    <t>add_user_013</t>
+  </si>
+  <si>
+    <t>add_user_014</t>
+  </si>
+  <si>
+    <t>add_user_015</t>
+  </si>
+  <si>
+    <t>add_user_016</t>
+  </si>
+  <si>
+    <t>add_user_017</t>
+  </si>
+  <si>
+    <t>add_user_018</t>
+  </si>
+  <si>
+    <t>add_user_019</t>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证【用户管理】添加用户，【用户昵称】为空，其他数据正常，添加失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证【用户管理】添加用户，【用户名称】为空，其他数据正常，添加失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_role_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证【用户管理】添加用户，【用户昵称】为1个字符，其他数据正常，添加失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证【用户管理】添加用户，【用户昵称】过29个字符，其他数据正常，添加成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>验证【用户管理】添加用户，填写有效数据能够添加用户成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，deptld为空，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，deptld为100，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，deptld为101，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，deptld为102，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，deptld为103，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，deptld为104，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，deptld为105，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，deptld为106，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，deptld为107，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，deptld为108，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，deptld为109，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，deptld为99，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，deptld为110，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，email符合邮箱规则，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，email为空，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，email无@无点，其他数据正常，添加失败</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，email有@无点，其他数据正常，添加失败</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，email无@有点，其他数据正常，添加失败</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，email@开头，其他数据正常，添加失败</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，email@和点之间无字符，其他数据正常，添加失败</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，email点结尾，其他数据正常，添加失败</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，email多个@，其他数据正常，添加失败</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，email多个点，其他数据正常，添加失败</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，email特殊字符，其他数据正常，添加失败</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，email汉字，其他数据正常，添加失败</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，email长度2，其他数据正常，添加失败</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，email长度3，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，email长度为50个字符，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，email长度为51个字符，其他数据正常，添加失败</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，password为空，其他数据正常，添加失败</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，password为16位字符，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，password为17位字符，其他数据正常，添加失败</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，password为6位字符，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，password为5位字符，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，password含有特殊字符，其他数据正常，添加失败</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，phonenumber以13开头的11位纯数字，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，phonenumber以14开头的11位纯数字，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，phonenumber以15开头的11位纯数字，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，phonenumber以17开头的11位纯数字，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，phonenumber以18开头的11位纯数字，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，phonenumber位数不为11位，其他数据正常，添加失败</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，phonenumber不为纯数字，其他数据正常，添加失败</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，phonenumber包含空格，其他数据正常，添加失败</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，phonenumber不以13\14\15\17\18开头，其他数据正常，添加失败</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，postlds为空，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，postlds为1，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，postlds为2，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，postlds为3，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，postlds为4，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，postlds不为1234且不为空，其他数据正常，添加失败</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，remark为空，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，remark含有特殊字符，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，remark有敏感词，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，rolelds为1，其他数据正常，添加失败</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，rolelds为2，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，rolelds为3，其他数据正常，添加失败</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，rolelds为空，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，postlds为[1, 2, 3, 4]，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，postlds为0，其他数据正常，添加失败</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，postlds为5，其他数据正常，添加失败</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，sex为0，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，sex为1，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，sex为2，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，sex为空，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，sex不为012且不为空，其他数据正常，添加失败</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，status为0，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，status为1，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，status为2，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，status为3，其他数据正常，添加失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证【用户管理】添加用户，【用户昵称】为2个字符，其他数据正常，添加成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证【用户管理】添加用户，【用户昵称】过30个字符，其他数据正常，添加成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证【用户管理】添加用户，【用户昵称】过31个字符，其他数据正常，添加失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证【用户管理】添加用户，【用户昵称】重复，其他数据正常，添加成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证【用户管理】添加用户，【用户昵称】重复，但是字母大小写不一致，其他数据正常，添加成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证【用户管理】添加用户，【用户昵称】含有特殊字符，其他数据正常，添加成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证【用户管理】添加用户，【用户昵称】有敏感词，其他数据正常，添加成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>验证【用户管理】添加用户，【用户名称】长度为30个字符，其他数据正常，添加成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>验证【用户管理】添加用户，【用户名称】长度31个字符，其他数据正常，添加失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>验证【用户管理】添加用户，【用户名称】长度为1个字符，其他数据正常，添加失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>验证【用户管理】添加用户，【用户名称】重复，其他数据正常，添加失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>验证【用户管理】添加用户，【用户名称】重复，但是字母大小写不一致，其他数据正常，添加失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>验证【用户管理】添加用户，【用户名称】含有特殊字符，其他数据正常，添加成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>验证【用户管理】添加用户，【用户名称】有敏感词，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，【用户昵称】为1个字符，其他数据正常，添加失败</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，【用户昵称】为2个字符，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，【用户昵称】过29个字符，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，【用户昵称】过30个字符，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，【用户昵称】过31个字符，其他数据正常，添加失败</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，【用户昵称】重复，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，【用户昵称】重复，但是字母大小写不一致，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，【用户昵称】含有特殊字符，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，【用户昵称】有敏感词，其他数据正常，添加成功</t>
-  </si>
-  <si>
-    <t>添加用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_user_002</t>
-  </si>
-  <si>
-    <t>add_user_003</t>
-  </si>
-  <si>
-    <t>add_user_004</t>
-  </si>
-  <si>
-    <t>add_user_005</t>
-  </si>
-  <si>
-    <t>add_user_006</t>
-  </si>
-  <si>
-    <t>add_user_007</t>
-  </si>
-  <si>
-    <t>add_user_008</t>
-  </si>
-  <si>
-    <t>add_user_009</t>
-  </si>
-  <si>
-    <t>add_user_010</t>
-  </si>
-  <si>
-    <t>add_user_011</t>
-  </si>
-  <si>
-    <t>add_user_012</t>
-  </si>
-  <si>
-    <t>add_user_013</t>
-  </si>
-  <si>
-    <t>add_user_014</t>
-  </si>
-  <si>
-    <t>add_user_015</t>
-  </si>
-  <si>
-    <t>add_user_016</t>
-  </si>
-  <si>
-    <t>add_user_017</t>
-  </si>
-  <si>
-    <t>add_user_018</t>
-  </si>
-  <si>
-    <t>add_user_019</t>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，【用户昵称】为空，其他数据正常，添加失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证【用户管理】添加用户，【用户名称】为空，其他数据正常，添加失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELETE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证【角色管理】【添加角色】，输入有效数据，点击添加可以成功添加角色</t>
+  </si>
+  <si>
+    <t>验证【角色管理】【添加角色】，【角色名称】为空，其他数据正常，添加失败</t>
+  </si>
+  <si>
+    <t>验证【角色管理】【添加角色】，【角色名称】过长，其他数据正常，添加失败</t>
+  </si>
+  <si>
+    <t>验证【角色管理】【添加角色】，【角色名称】过短，其他数据正常，添加失败</t>
+  </si>
+  <si>
+    <t>验证【角色管理】【添加角色】，【角色名称】重复，其他数据正常，添加失败</t>
+  </si>
+  <si>
+    <t>验证【角色管理】【添加角色】，【权限字符】重复，其他数据正常，添加失败</t>
+  </si>
+  <si>
+    <t>验证【角色管理】【添加角色】，【权限字符】重复，但大小写不一致，其他数据正常，添加失败</t>
+  </si>
+  <si>
+    <t>验证【角色管理】【添加角色】，【状态】为正常，其他数据正常，添加成功</t>
+  </si>
+  <si>
+    <t>验证【角色管理】【添加角色】，【状态】为停用，其他数据正常，添加成功</t>
+  </si>
+  <si>
+    <t>验证【角色管理】【添加角色】，【菜单权限】为系统管理，其他数据正常，添加成功</t>
+  </si>
+  <si>
+    <t>验证【角色管理】【添加角色】，【菜单权限】为系统监控，其他数据正常，添加成功</t>
+  </si>
+  <si>
+    <t>验证【角色管理】【添加角色】，【菜单权限】为系统工具，其他数据正常，添加成功</t>
+  </si>
+  <si>
+    <t>验证【角色管理】【添加角色】，【备注】为空，其他数据正常，添加成功</t>
+  </si>
+  <si>
+    <t>验证【角色管理】【添加角色】，【备注】过长，其他数据正常，添加成功</t>
+  </si>
+  <si>
+    <t>add_role_002</t>
+  </si>
+  <si>
+    <t>add_role_003</t>
+  </si>
+  <si>
+    <t>add_role_004</t>
+  </si>
+  <si>
+    <t>add_role_005</t>
+  </si>
+  <si>
+    <t>add_role_006</t>
+  </si>
+  <si>
+    <t>add_role_007</t>
+  </si>
+  <si>
+    <t>add_role_008</t>
+  </si>
+  <si>
+    <t>add_role_009</t>
+  </si>
+  <si>
+    <t>add_role_010</t>
+  </si>
+  <si>
+    <t>add_role_011</t>
+  </si>
+  <si>
+    <t>add_role_012</t>
+  </si>
+  <si>
+    <t>add_role_013</t>
+  </si>
+  <si>
+    <t>add_role_014</t>
   </si>
 </sst>
 </file>
@@ -569,12 +472,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -855,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -947,7 +853,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>27</v>
@@ -970,7 +876,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>28</v>
@@ -993,7 +899,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>29</v>
@@ -1016,7 +922,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>30</v>
@@ -1039,7 +945,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>31</v>
@@ -1062,7 +968,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>32</v>
@@ -1085,7 +991,7 @@
         <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>33</v>
@@ -1108,7 +1014,7 @@
         <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>34</v>
@@ -1131,7 +1037,7 @@
         <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>35</v>
@@ -1154,7 +1060,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>36</v>
@@ -1177,7 +1083,7 @@
         <v>26</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>37</v>
@@ -1194,10 +1100,10 @@
         <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>14</v>
@@ -1209,7 +1115,7 @@
         <v>38</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>38</v>
@@ -1217,893 +1123,929 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>131</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>135</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D33" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D34" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D36" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D37" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D38" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D39" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D40" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D41" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D42" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D43" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D44" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D45" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D46" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D47" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D48" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D49" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D50" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D51" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D52" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D53" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D54" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D55" s="1" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D56" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D57" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D58" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D59" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D60" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D61" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D62" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D63" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D64" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D65" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D66" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D67" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D68" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D69" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D70" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D71" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D72" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D73" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D74" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D75" s="1" t="s">
+      <c r="D33" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D76" s="1" t="s">
+      <c r="E33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D77" s="1" t="s">
+      <c r="E34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D78" s="1" t="s">
+      <c r="E35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D79" s="1" t="s">
+      <c r="E36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D80" s="1" t="s">
+      <c r="E37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D81" s="1" t="s">
+      <c r="E38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D82" s="1" t="s">
+      <c r="E39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D83" s="1" t="s">
+      <c r="E40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D84" s="1" t="s">
+      <c r="E41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D85" s="1" t="s">
+      <c r="E42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D86" s="1" t="s">
+      <c r="E43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D87" s="1" t="s">
+      <c r="E44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D88" s="1" t="s">
+      <c r="E45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D89" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D90" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D91" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D92" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D93" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D94" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D95" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D96" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D97" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D98" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D99" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D100" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D101" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D102" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D103" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D104" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D105" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D106" s="1" t="s">
+      <c r="E46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>109</v>
       </c>
     </row>
